--- a/Отчеты/2Д93/scores_2d93.xlsx
+++ b/Отчеты/2Д93/scores_2d93.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E41F8A9-C2EC-4F69-B1A6-ACA4D395851F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC416E80-2088-494A-9FAD-39C0B8C3788B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -493,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:E74"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +595,33 @@
       <c r="G3" t="s">
         <v>39</v>
       </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -604,6 +645,24 @@
       <c r="G4" t="s">
         <v>39</v>
       </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -656,6 +715,27 @@
       <c r="H6" t="s">
         <v>39</v>
       </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -677,6 +757,30 @@
         <v>39</v>
       </c>
       <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -702,6 +806,24 @@
       <c r="H8" t="s">
         <v>39</v>
       </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -728,6 +850,21 @@
       <c r="H9" t="s">
         <v>39</v>
       </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -751,6 +888,21 @@
       <c r="G10" t="s">
         <v>39</v>
       </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -789,6 +941,18 @@
       <c r="L11" t="s">
         <v>39</v>
       </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -827,6 +991,15 @@
       <c r="L12" t="s">
         <v>39</v>
       </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -859,6 +1032,18 @@
       <c r="J13" t="s">
         <v>39</v>
       </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -900,6 +1085,21 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -946,6 +1146,27 @@
       <c r="G16" t="s">
         <v>39</v>
       </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -972,6 +1193,18 @@
       <c r="J17" t="s">
         <v>39</v>
       </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1004,6 +1237,15 @@
       <c r="J18" t="s">
         <v>39</v>
       </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1036,6 +1278,12 @@
       <c r="J19" t="s">
         <v>39</v>
       </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1062,6 +1310,18 @@
       <c r="J20" t="s">
         <v>39</v>
       </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1082,6 +1342,18 @@
       <c r="F21" t="s">
         <v>39</v>
       </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1105,6 +1377,21 @@
       <c r="G22" t="s">
         <v>39</v>
       </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1193,11 +1480,11 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <f>IF(C3="+",5,0)</f>
+        <f>_xlfn.IFS(C3="+",5,C3="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:R29" si="0">IF(D3="+",5,0)</f>
+        <f t="shared" ref="D29:R29" si="0">_xlfn.IFS(D3="+",5,D3="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="E29">
@@ -1214,39 +1501,39 @@
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
@@ -1265,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:R30" si="1">IF(C4="+",5,0)</f>
+        <f t="shared" ref="C30:R30" si="1">_xlfn.IFS(C4="+",5,C4="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D30">
@@ -1286,27 +1573,27 @@
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
@@ -1337,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:R31" si="2">IF(C5="+",5,0)</f>
+        <f t="shared" ref="C31:R31" si="2">_xlfn.IFS(C5="+",5,C5="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D31">
@@ -1409,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:R32" si="3">IF(C6="+",5,0)</f>
+        <f t="shared" ref="C32:R32" si="3">_xlfn.IFS(C6="+",5,C6="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D32">
@@ -1434,31 +1721,31 @@
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P32">
         <f t="shared" si="3"/>
@@ -1481,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:R33" si="4">IF(C7="+",5,0)</f>
+        <f t="shared" ref="C33:R33" si="4">_xlfn.IFS(C7="+",5,C7="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D33">
@@ -1502,35 +1789,35 @@
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
@@ -1553,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:R34" si="5">IF(C8="+",5,0)</f>
+        <f t="shared" ref="C34:R34" si="5">_xlfn.IFS(C8="+",5,C8="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D34">
@@ -1578,27 +1865,27 @@
       </c>
       <c r="I34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O34">
         <f t="shared" si="5"/>
@@ -1625,7 +1912,7 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:R35" si="6">IF(C9="+",5,0)</f>
+        <f t="shared" ref="C35:R35" si="6">_xlfn.IFS(C9="+",5,C9="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D35">
@@ -1650,7 +1937,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <f t="shared" si="6"/>
@@ -1658,19 +1945,19 @@
       </c>
       <c r="K35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O35">
         <f t="shared" si="6"/>
@@ -1697,7 +1984,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:R36" si="7">IF(C10="+",5,0)</f>
+        <f t="shared" ref="C36:R36" si="7">_xlfn.IFS(C10="+",5,C10="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D36">
@@ -1730,23 +2017,23 @@
       </c>
       <c r="K36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P36">
         <f t="shared" si="7"/>
@@ -1769,7 +2056,7 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:R37" si="8">IF(C11="+",5,0)</f>
+        <f t="shared" ref="C37:R37" si="8">_xlfn.IFS(C11="+",5,C11="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D37">
@@ -1810,19 +2097,19 @@
       </c>
       <c r="M37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q37">
         <f t="shared" si="8"/>
@@ -1841,7 +2128,7 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:R38" si="9">IF(C12="+",5,0)</f>
+        <f t="shared" ref="C38:R38" si="9">_xlfn.IFS(C12="+",5,C12="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D38">
@@ -1882,15 +2169,15 @@
       </c>
       <c r="M38">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N38">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O38">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P38">
         <f t="shared" si="9"/>
@@ -1913,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:R39" si="10">IF(C13="+",5,0)</f>
+        <f t="shared" ref="C39:R39" si="10">_xlfn.IFS(C13="+",5,C13="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D39">
@@ -1946,19 +2233,19 @@
       </c>
       <c r="K39">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L39">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M39">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N39">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O39">
         <f t="shared" si="10"/>
@@ -1985,7 +2272,7 @@
         <v>13</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:R40" si="11">IF(C14="+",5,0)</f>
+        <f t="shared" ref="C40:R40" si="11">_xlfn.IFS(C14="+",5,C14="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D40">
@@ -2030,23 +2317,23 @@
       </c>
       <c r="N40">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O40">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P40">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q40">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R40">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2057,7 +2344,7 @@
         <v>14</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:R41" si="12">IF(C15="+",5,0)</f>
+        <f t="shared" ref="C41:R41" si="12">_xlfn.IFS(C15="+",5,C15="*",3,TRUE,0)</f>
         <v>0</v>
       </c>
       <c r="D41">
@@ -2129,7 +2416,7 @@
         <v>15</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:R42" si="13">IF(C16="+",5,0)</f>
+        <f t="shared" ref="C42:R42" si="13">_xlfn.IFS(C16="+",5,C16="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D42">
@@ -2158,31 +2445,31 @@
       </c>
       <c r="J42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q42">
         <f t="shared" si="13"/>
@@ -2201,7 +2488,7 @@
         <v>16</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:R43" si="14">IF(C17="+",5,0)</f>
+        <f t="shared" ref="C43:R43" si="14">_xlfn.IFS(C17="+",5,C17="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D43">
@@ -2234,19 +2521,19 @@
       </c>
       <c r="K43">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L43">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M43">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N43">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O43">
         <f t="shared" si="14"/>
@@ -2273,7 +2560,7 @@
         <v>17</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:R44" si="15">IF(C18="+",5,0)</f>
+        <f t="shared" ref="C44:R44" si="15">_xlfn.IFS(C18="+",5,C18="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D44">
@@ -2306,15 +2593,15 @@
       </c>
       <c r="K44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N44">
         <f t="shared" si="15"/>
@@ -2345,7 +2632,7 @@
         <v>18</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:R45" si="16">IF(C19="+",5,0)</f>
+        <f t="shared" ref="C45:R45" si="16">_xlfn.IFS(C19="+",5,C19="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D45">
@@ -2378,11 +2665,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L45">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M45">
         <f t="shared" si="16"/>
@@ -2417,7 +2704,7 @@
         <v>19</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:R46" si="17">IF(C20="+",5,0)</f>
+        <f t="shared" ref="C46:R46" si="17">_xlfn.IFS(C20="+",5,C20="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D46">
@@ -2450,19 +2737,19 @@
       </c>
       <c r="K46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O46">
         <f t="shared" si="17"/>
@@ -2489,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:R47" si="18">IF(C21="+",5,0)</f>
+        <f t="shared" ref="C47:R47" si="18">_xlfn.IFS(C21="+",5,C21="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D47">
@@ -2510,19 +2797,19 @@
       </c>
       <c r="H47">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K47">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L47">
         <f t="shared" si="18"/>
@@ -2561,7 +2848,7 @@
         <v>21</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:R48" si="19">IF(C22="+",5,0)</f>
+        <f t="shared" ref="C48:R48" si="19">_xlfn.IFS(C22="+",5,C22="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D48">
@@ -2582,23 +2869,23 @@
       </c>
       <c r="H48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M48">
         <f t="shared" si="19"/>
@@ -2633,7 +2920,7 @@
         <v>22</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:R49" si="20">IF(C23="+",5,0)</f>
+        <f t="shared" ref="C49:R49" si="20">_xlfn.IFS(C23="+",5,C23="*",3,TRUE,0)</f>
         <v>5</v>
       </c>
       <c r="D49">
@@ -2730,15 +3017,15 @@
       </c>
       <c r="C54" s="1">
         <f>SUM(C29:J29)</f>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1">
         <f>SUM(K29:R29)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E54" s="1">
         <f>SUM(C54:D54)</f>
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -2750,15 +3037,15 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" ref="C55:C74" si="21">SUM(C30:J30)</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" ref="D55:D74" si="22">SUM(K30:R30)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" ref="E55:E74" si="23">SUM(C55:D55)</f>
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -2790,15 +3077,15 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="21"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="23"/>
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -2810,15 +3097,15 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="23"/>
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -2830,15 +3117,15 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="23"/>
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -2850,15 +3137,15 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="21"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="23"/>
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -2874,11 +3161,11 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="23"/>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -2894,11 +3181,11 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="23"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -2914,11 +3201,11 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="23"/>
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -2934,11 +3221,11 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="23"/>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,11 +3241,11 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="23"/>
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,15 +3277,15 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="23"/>
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3014,11 +3301,11 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="23"/>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3034,11 +3321,11 @@
       </c>
       <c r="D69" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="23"/>
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3054,11 +3341,11 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" si="23"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3074,11 +3361,11 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="23"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3090,15 +3377,15 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3110,15 +3397,15 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="23"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3142,6 +3429,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E54:E74">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>55</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Отчеты/2Д93/scores_2d93.xlsx
+++ b/Отчеты/2Д93/scores_2d93.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC416E80-2088-494A-9FAD-39C0B8C3788B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DDEF21-378E-4BDC-9BFE-230B76659D2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17160" yWindow="1590" windowWidth="11055" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +622,9 @@
       <c r="P3" t="s">
         <v>39</v>
       </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -663,6 +666,15 @@
       <c r="M4" t="s">
         <v>39</v>
       </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -687,6 +699,24 @@
         <v>39</v>
       </c>
       <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -736,6 +766,12 @@
       <c r="O6" t="s">
         <v>39</v>
       </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -782,6 +818,12 @@
       </c>
       <c r="O7" t="s">
         <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -888,6 +930,15 @@
       <c r="G10" t="s">
         <v>39</v>
       </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
       <c r="K10" t="s">
         <v>44</v>
       </c>
@@ -901,6 +952,12 @@
         <v>44</v>
       </c>
       <c r="O10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -953,6 +1010,9 @@
       <c r="P11" t="s">
         <v>39</v>
       </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1000,6 +1060,12 @@
       <c r="O12" t="s">
         <v>39</v>
       </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1044,6 +1110,12 @@
       <c r="N13" t="s">
         <v>39</v>
       </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1167,6 +1239,12 @@
       <c r="P16" t="s">
         <v>44</v>
       </c>
+      <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1205,6 +1283,15 @@
       <c r="N17" t="s">
         <v>44</v>
       </c>
+      <c r="O17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1246,6 +1333,18 @@
       <c r="M18" t="s">
         <v>39</v>
       </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1284,6 +1383,15 @@
       <c r="L19" t="s">
         <v>39</v>
       </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1322,6 +1430,15 @@
       <c r="N20" t="s">
         <v>39</v>
       </c>
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1354,6 +1471,12 @@
       <c r="K21" t="s">
         <v>44</v>
       </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1392,6 +1515,18 @@
       <c r="L22" t="s">
         <v>39</v>
       </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1537,7 +1672,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R29">
         <f t="shared" si="0"/>
@@ -1597,15 +1732,15 @@
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
@@ -1649,27 +1784,27 @@
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
@@ -1749,11 +1884,11 @@
       </c>
       <c r="P32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R32">
         <f t="shared" si="3"/>
@@ -1821,11 +1956,11 @@
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R33">
         <f t="shared" si="4"/>
@@ -2005,15 +2140,15 @@
       </c>
       <c r="H36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K36">
         <f t="shared" si="7"/>
@@ -2037,11 +2172,11 @@
       </c>
       <c r="P36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R36">
         <f t="shared" si="7"/>
@@ -2113,7 +2248,7 @@
       </c>
       <c r="Q37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R37">
         <f t="shared" si="8"/>
@@ -2181,11 +2316,11 @@
       </c>
       <c r="P38">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q38">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R38">
         <f t="shared" si="9"/>
@@ -2249,11 +2384,11 @@
       </c>
       <c r="O39">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P39">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q39">
         <f t="shared" si="10"/>
@@ -2473,11 +2608,11 @@
       </c>
       <c r="Q42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R42">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2537,15 +2672,15 @@
       </c>
       <c r="O43">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P43">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q43">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R43">
         <f t="shared" si="14"/>
@@ -2605,19 +2740,19 @@
       </c>
       <c r="N44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q44">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R44">
         <f t="shared" si="15"/>
@@ -2681,15 +2816,15 @@
       </c>
       <c r="O45">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P45">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q45">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R45">
         <f t="shared" si="16"/>
@@ -2753,15 +2888,15 @@
       </c>
       <c r="O46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q46">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R46">
         <f t="shared" si="17"/>
@@ -2813,11 +2948,11 @@
       </c>
       <c r="L47">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M47">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N47">
         <f t="shared" si="18"/>
@@ -2889,19 +3024,19 @@
       </c>
       <c r="M48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q48">
         <f t="shared" si="19"/>
@@ -3021,11 +3156,11 @@
       </c>
       <c r="D54" s="1">
         <f>SUM(K29:R29)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E54" s="1">
         <f>SUM(C54:D54)</f>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -3041,11 +3176,11 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" ref="D55:D74" si="22">SUM(K30:R30)</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" ref="E55:E74" si="23">SUM(C55:D55)</f>
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -3057,15 +3192,15 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="21"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="23"/>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3081,11 +3216,11 @@
       </c>
       <c r="D57" s="1">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="23"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3101,11 +3236,11 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="23"/>
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -3157,15 +3292,15 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="21"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="23"/>
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -3181,11 +3316,11 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="23"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -3201,11 +3336,11 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="23"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -3221,11 +3356,11 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="23"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3281,11 +3416,11 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3301,11 +3436,11 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="23"/>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3321,11 +3456,11 @@
       </c>
       <c r="D69" s="1">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="23"/>
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3341,11 +3476,11 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" si="23"/>
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3361,11 +3496,11 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="23"/>
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,11 +3516,11 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" si="23"/>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3401,11 +3536,11 @@
       </c>
       <c r="D73" s="1">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="23"/>
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">

--- a/Отчеты/2Д93/scores_2d93.xlsx
+++ b/Отчеты/2Д93/scores_2d93.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DDEF21-378E-4BDC-9BFE-230B76659D2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C4390E-50E0-451F-A02B-06C6DB84A6E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="1590" windowWidth="11055" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="540" windowWidth="11640" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -508,7 +508,7 @@
   <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G54" sqref="G54:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +719,15 @@
       <c r="N5" t="s">
         <v>39</v>
       </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1808,15 +1817,15 @@
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R31">
         <f t="shared" si="2"/>
@@ -3141,7 +3150,12 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1">
+        <v>80</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -3162,6 +3176,14 @@
         <f>SUM(C54:D54)</f>
         <v>67</v>
       </c>
+      <c r="F54">
+        <f>ROUNDUP(E54*$F$53/$E$53,0)</f>
+        <v>84</v>
+      </c>
+      <c r="G54">
+        <f>F54-E54</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -3182,6 +3204,14 @@
         <f t="shared" ref="E55:E74" si="23">SUM(C55:D55)</f>
         <v>68</v>
       </c>
+      <c r="F55">
+        <f t="shared" ref="F55:F74" si="24">ROUNDUP(E55*$F$53/$E$53,0)</f>
+        <v>85</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55:G74" si="25">F55-E55</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -3196,11 +3226,19 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="23"/>
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="25"/>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3222,6 +3260,14 @@
         <f t="shared" si="23"/>
         <v>75</v>
       </c>
+      <c r="F57">
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -3242,6 +3288,14 @@
         <f t="shared" si="23"/>
         <v>67</v>
       </c>
+      <c r="F58">
+        <f t="shared" si="24"/>
+        <v>84</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -3262,6 +3316,14 @@
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
+      <c r="F59">
+        <f t="shared" si="24"/>
+        <v>69</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -3282,6 +3344,14 @@
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
+      <c r="F60">
+        <f t="shared" si="24"/>
+        <v>69</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -3302,6 +3372,14 @@
         <f t="shared" si="23"/>
         <v>61</v>
       </c>
+      <c r="F61">
+        <f t="shared" si="24"/>
+        <v>77</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -3322,6 +3400,14 @@
         <f t="shared" si="23"/>
         <v>75</v>
       </c>
+      <c r="F62">
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -3342,6 +3428,14 @@
         <f t="shared" si="23"/>
         <v>75</v>
       </c>
+      <c r="F63">
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -3362,8 +3456,16 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="24"/>
+        <v>88</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>12</v>
       </c>
@@ -3382,8 +3484,16 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>13</v>
       </c>
@@ -3402,8 +3512,16 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>14</v>
       </c>
@@ -3422,8 +3540,16 @@
         <f t="shared" si="23"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" si="24"/>
+        <v>73</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>15</v>
       </c>
@@ -3442,8 +3568,16 @@
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="24"/>
+        <v>69</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>16</v>
       </c>
@@ -3462,8 +3596,16 @@
         <f t="shared" si="23"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>17</v>
       </c>
@@ -3482,8 +3624,16 @@
         <f t="shared" si="23"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="24"/>
+        <v>82</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>18</v>
       </c>
@@ -3502,8 +3652,16 @@
         <f t="shared" si="23"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="24"/>
+        <v>82</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>19</v>
       </c>
@@ -3522,8 +3680,16 @@
         <f t="shared" si="23"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="24"/>
+        <v>48</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>20</v>
       </c>
@@ -3542,8 +3708,16 @@
         <f t="shared" si="23"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="24"/>
+        <v>80</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>21</v>
       </c>
@@ -3561,6 +3735,14 @@
       <c r="E74" s="1">
         <f t="shared" si="23"/>
         <v>25</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="24"/>
+        <v>32</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="25"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
